--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.424968666666667</v>
+        <v>8.031680333333334</v>
       </c>
       <c r="H2">
-        <v>28.274906</v>
+        <v>24.095041</v>
       </c>
       <c r="I2">
-        <v>0.2978541337039891</v>
+        <v>0.353073148880341</v>
       </c>
       <c r="J2">
-        <v>0.3221356850041871</v>
+        <v>0.3600143049225579</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.416098</v>
+        <v>1.546825</v>
       </c>
       <c r="N2">
-        <v>7.248294</v>
+        <v>4.640475</v>
       </c>
       <c r="O2">
-        <v>0.129555482123503</v>
+        <v>0.09335776776421496</v>
       </c>
       <c r="P2">
-        <v>0.1362159554733215</v>
+        <v>0.09839297464651384</v>
       </c>
       <c r="Q2">
-        <v>22.771647945596</v>
+        <v>12.42360393160834</v>
       </c>
       <c r="R2">
-        <v>204.944831510364</v>
+        <v>111.812435384475</v>
       </c>
       <c r="S2">
-        <v>0.03858863589449863</v>
+        <v>0.03296212103695097</v>
       </c>
       <c r="T2">
-        <v>0.04388002012489826</v>
+        <v>0.03542287837662754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.424968666666667</v>
+        <v>8.031680333333334</v>
       </c>
       <c r="H3">
-        <v>28.274906</v>
+        <v>24.095041</v>
       </c>
       <c r="I3">
-        <v>0.2978541337039891</v>
+        <v>0.353073148880341</v>
       </c>
       <c r="J3">
-        <v>0.3221356850041871</v>
+        <v>0.3600143049225579</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.039892</v>
       </c>
       <c r="O3">
-        <v>0.2866958681958705</v>
+        <v>0.3226929381796237</v>
       </c>
       <c r="P3">
-        <v>0.3014349603463775</v>
+        <v>0.3400972286002662</v>
       </c>
       <c r="Q3">
-        <v>50.39182650557245</v>
+        <v>42.94242837506356</v>
       </c>
       <c r="R3">
-        <v>453.526438550152</v>
+        <v>386.4818553755721</v>
       </c>
       <c r="S3">
-        <v>0.08539354945799403</v>
+        <v>0.113934211804529</v>
       </c>
       <c r="T3">
-        <v>0.09710295743539028</v>
+        <v>0.1224398673606131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.424968666666667</v>
+        <v>8.031680333333334</v>
       </c>
       <c r="H4">
-        <v>28.274906</v>
+        <v>24.095041</v>
       </c>
       <c r="I4">
-        <v>0.2978541337039891</v>
+        <v>0.353073148880341</v>
       </c>
       <c r="J4">
-        <v>0.3221356850041871</v>
+        <v>0.3600143049225579</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.517315</v>
+        <v>3.750299666666667</v>
       </c>
       <c r="N4">
-        <v>7.551945</v>
+        <v>11.250899</v>
       </c>
       <c r="O4">
-        <v>0.1349829181108241</v>
+        <v>0.2263472631531553</v>
       </c>
       <c r="P4">
-        <v>0.1419224170345426</v>
+        <v>0.238555195331833</v>
       </c>
       <c r="Q4">
-        <v>23.72561499913</v>
+        <v>30.12120807687323</v>
       </c>
       <c r="R4">
-        <v>213.53053499217</v>
+        <v>271.090872691859</v>
       </c>
       <c r="S4">
-        <v>0.04020522013873602</v>
+        <v>0.07991714094193171</v>
       </c>
       <c r="T4">
-        <v>0.04571827502887228</v>
+        <v>0.08588328283305489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.424968666666667</v>
+        <v>8.031680333333334</v>
       </c>
       <c r="H5">
-        <v>28.274906</v>
+        <v>24.095041</v>
       </c>
       <c r="I5">
-        <v>0.2978541337039891</v>
+        <v>0.353073148880341</v>
       </c>
       <c r="J5">
-        <v>0.3221356850041871</v>
+        <v>0.3600143049225579</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.7356285</v>
+        <v>2.543696</v>
       </c>
       <c r="N5">
-        <v>5.471257</v>
+        <v>5.087391999999999</v>
       </c>
       <c r="O5">
-        <v>0.1466892771850709</v>
+        <v>0.1535233658822184</v>
       </c>
       <c r="P5">
-        <v>0.1028204015862351</v>
+        <v>0.1078690504900635</v>
       </c>
       <c r="Q5">
-        <v>25.78321289614033</v>
+        <v>20.43015313717867</v>
       </c>
       <c r="R5">
-        <v>154.699277376842</v>
+        <v>122.580918823072</v>
       </c>
       <c r="S5">
-        <v>0.04369200757962361</v>
+        <v>0.05420497821874356</v>
       </c>
       <c r="T5">
-        <v>0.03312212049738746</v>
+        <v>0.0388344012348365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.424968666666667</v>
+        <v>8.031680333333334</v>
       </c>
       <c r="H6">
-        <v>28.274906</v>
+        <v>24.095041</v>
       </c>
       <c r="I6">
-        <v>0.2978541337039891</v>
+        <v>0.353073148880341</v>
       </c>
       <c r="J6">
-        <v>0.3221356850041871</v>
+        <v>0.3600143049225579</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.633465333333334</v>
+        <v>3.381336</v>
       </c>
       <c r="N6">
-        <v>16.900396</v>
+        <v>10.144008</v>
       </c>
       <c r="O6">
-        <v>0.3020764543847314</v>
+        <v>0.2040786650207874</v>
       </c>
       <c r="P6">
-        <v>0.3176062655595234</v>
+        <v>0.2150855509313235</v>
       </c>
       <c r="Q6">
-        <v>53.09523425141955</v>
+        <v>27.157809851592</v>
       </c>
       <c r="R6">
-        <v>477.857108262776</v>
+        <v>244.420288664328</v>
       </c>
       <c r="S6">
-        <v>0.08997472063313672</v>
+        <v>0.07205469687818571</v>
       </c>
       <c r="T6">
-        <v>0.1023123119176388</v>
+        <v>0.07743387511742585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.548178</v>
       </c>
       <c r="I7">
-        <v>0.100582625690833</v>
+        <v>0.1399128257358017</v>
       </c>
       <c r="J7">
-        <v>0.1087822842124359</v>
+        <v>0.1426634080409682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.416098</v>
+        <v>1.546825</v>
       </c>
       <c r="N7">
-        <v>7.248294</v>
+        <v>4.640475</v>
       </c>
       <c r="O7">
-        <v>0.129555482123503</v>
+        <v>0.09335776776421496</v>
       </c>
       <c r="P7">
-        <v>0.1362159554733215</v>
+        <v>0.09839297464651384</v>
       </c>
       <c r="Q7">
-        <v>7.689777923148</v>
+        <v>4.92312014495</v>
       </c>
       <c r="R7">
-        <v>69.208001308332</v>
+        <v>44.30808130455</v>
       </c>
       <c r="S7">
-        <v>0.0130310305646237</v>
+        <v>0.01306194909227805</v>
       </c>
       <c r="T7">
-        <v>0.01481788278256737</v>
+        <v>0.01403707709036024</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.548178</v>
       </c>
       <c r="I8">
-        <v>0.100582625690833</v>
+        <v>0.1399128257358017</v>
       </c>
       <c r="J8">
-        <v>0.1087822842124359</v>
+        <v>0.1426634080409682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>16.039892</v>
       </c>
       <c r="O8">
-        <v>0.2866958681958705</v>
+        <v>0.3226929381796237</v>
       </c>
       <c r="P8">
-        <v>0.3014349603463775</v>
+        <v>0.3400972286002662</v>
       </c>
       <c r="Q8">
         <v>17.01686043519733</v>
@@ -948,10 +948,10 @@
         <v>153.151743916776</v>
       </c>
       <c r="S8">
-        <v>0.02883662319785362</v>
+        <v>0.04514888082569952</v>
       </c>
       <c r="T8">
-        <v>0.03279078352796398</v>
+        <v>0.04851942969740222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.548178</v>
       </c>
       <c r="I9">
-        <v>0.100582625690833</v>
+        <v>0.1399128257358017</v>
       </c>
       <c r="J9">
-        <v>0.1087822842124359</v>
+        <v>0.1426634080409682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.517315</v>
+        <v>3.750299666666667</v>
       </c>
       <c r="N9">
-        <v>7.551945</v>
+        <v>11.250899</v>
       </c>
       <c r="O9">
-        <v>0.1349829181108241</v>
+        <v>0.2263472631531553</v>
       </c>
       <c r="P9">
-        <v>0.1419224170345426</v>
+        <v>0.238555195331833</v>
       </c>
       <c r="Q9">
-        <v>8.01192390069</v>
+        <v>11.93617625689133</v>
       </c>
       <c r="R9">
-        <v>72.10731510621</v>
+        <v>107.425586312022</v>
       </c>
       <c r="S9">
-        <v>0.01357693632699738</v>
+        <v>0.03166888518532306</v>
       </c>
       <c r="T9">
-        <v>0.01543864470596746</v>
+        <v>0.03403309717191817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.548178</v>
       </c>
       <c r="I10">
-        <v>0.100582625690833</v>
+        <v>0.1399128257358017</v>
       </c>
       <c r="J10">
-        <v>0.1087822842124359</v>
+        <v>0.1426634080409682</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.7356285</v>
+        <v>2.543696</v>
       </c>
       <c r="N10">
-        <v>5.471257</v>
+        <v>5.087391999999999</v>
       </c>
       <c r="O10">
-        <v>0.1466892771850709</v>
+        <v>0.1535233658822184</v>
       </c>
       <c r="P10">
-        <v>0.1028204015862351</v>
+        <v>0.1078690504900635</v>
       </c>
       <c r="Q10">
-        <v>8.706755953291001</v>
+        <v>8.095887395296</v>
       </c>
       <c r="R10">
-        <v>52.24053571974601</v>
+        <v>48.575324371776</v>
       </c>
       <c r="S10">
-        <v>0.01475439265996483</v>
+        <v>0.02147988793705254</v>
       </c>
       <c r="T10">
-        <v>0.01118503814819062</v>
+        <v>0.01538896636505572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.548178</v>
       </c>
       <c r="I11">
-        <v>0.100582625690833</v>
+        <v>0.1399128257358017</v>
       </c>
       <c r="J11">
-        <v>0.1087822842124359</v>
+        <v>0.1426634080409682</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.633465333333334</v>
+        <v>3.381336</v>
       </c>
       <c r="N11">
-        <v>16.900396</v>
+        <v>10.144008</v>
       </c>
       <c r="O11">
-        <v>0.3020764543847314</v>
+        <v>0.2040786650207874</v>
       </c>
       <c r="P11">
-        <v>0.3176062655595234</v>
+        <v>0.2150855509313235</v>
       </c>
       <c r="Q11">
-        <v>17.92977658649867</v>
+        <v>10.761866001936</v>
       </c>
       <c r="R11">
-        <v>161.367989278488</v>
+        <v>96.85679401742399</v>
       </c>
       <c r="S11">
-        <v>0.03038364294139341</v>
+        <v>0.02855322269544847</v>
       </c>
       <c r="T11">
-        <v>0.03454993504774647</v>
+        <v>0.03068483771623185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.748145</v>
+        <v>6.716415</v>
       </c>
       <c r="H12">
-        <v>17.244435</v>
+        <v>20.149245</v>
       </c>
       <c r="I12">
-        <v>0.1816567046461533</v>
+        <v>0.295254005988679</v>
       </c>
       <c r="J12">
-        <v>0.1964656533689335</v>
+        <v>0.3010584805972866</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.416098</v>
+        <v>1.546825</v>
       </c>
       <c r="N12">
-        <v>7.248294</v>
+        <v>4.640475</v>
       </c>
       <c r="O12">
-        <v>0.129555482123503</v>
+        <v>0.09335776776421496</v>
       </c>
       <c r="P12">
-        <v>0.1362159554733215</v>
+        <v>0.09839297464651384</v>
       </c>
       <c r="Q12">
-        <v>13.88808163821</v>
+        <v>10.389118632375</v>
       </c>
       <c r="R12">
-        <v>124.99273474389</v>
+        <v>93.502067691375</v>
       </c>
       <c r="S12">
-        <v>0.02353462195139918</v>
+        <v>0.02756425492254523</v>
       </c>
       <c r="T12">
-        <v>0.02676175669133966</v>
+        <v>0.02962203944852679</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.748145</v>
+        <v>6.716415</v>
       </c>
       <c r="H13">
-        <v>17.244435</v>
+        <v>20.149245</v>
       </c>
       <c r="I13">
-        <v>0.1816567046461533</v>
+        <v>0.295254005988679</v>
       </c>
       <c r="J13">
-        <v>0.1964656533689335</v>
+        <v>0.3010584805972866</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>16.039892</v>
       </c>
       <c r="O13">
-        <v>0.2866958681958705</v>
+        <v>0.3226929381796237</v>
       </c>
       <c r="P13">
-        <v>0.3014349603463775</v>
+        <v>0.3400972286002662</v>
       </c>
       <c r="Q13">
-        <v>30.73320833344667</v>
+        <v>35.91019040906001</v>
       </c>
       <c r="R13">
-        <v>276.59887500102</v>
+        <v>323.19171368154</v>
       </c>
       <c r="S13">
-        <v>0.05208022665212975</v>
+        <v>0.09527638270179106</v>
       </c>
       <c r="T13">
-        <v>0.05922161643268962</v>
+        <v>0.1023891548977442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.748145</v>
+        <v>6.716415</v>
       </c>
       <c r="H14">
-        <v>17.244435</v>
+        <v>20.149245</v>
       </c>
       <c r="I14">
-        <v>0.1816567046461533</v>
+        <v>0.295254005988679</v>
       </c>
       <c r="J14">
-        <v>0.1964656533689335</v>
+        <v>0.3010584805972866</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.517315</v>
+        <v>3.750299666666667</v>
       </c>
       <c r="N14">
-        <v>7.551945</v>
+        <v>11.250899</v>
       </c>
       <c r="O14">
-        <v>0.1349829181108241</v>
+        <v>0.2263472631531553</v>
       </c>
       <c r="P14">
-        <v>0.1419224170345426</v>
+        <v>0.238555195331833</v>
       </c>
       <c r="Q14">
-        <v>14.469891630675</v>
+        <v>25.188568935695</v>
       </c>
       <c r="R14">
-        <v>130.229024676075</v>
+        <v>226.697120421255</v>
       </c>
       <c r="S14">
-        <v>0.02452055208753388</v>
+        <v>0.06682993619054281</v>
       </c>
       <c r="T14">
-        <v>0.02788288039038967</v>
+        <v>0.07181906464519056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.748145</v>
+        <v>6.716415</v>
       </c>
       <c r="H15">
-        <v>17.244435</v>
+        <v>20.149245</v>
       </c>
       <c r="I15">
-        <v>0.1816567046461533</v>
+        <v>0.295254005988679</v>
       </c>
       <c r="J15">
-        <v>0.1964656533689335</v>
+        <v>0.3010584805972866</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.7356285</v>
+        <v>2.543696</v>
       </c>
       <c r="N15">
-        <v>5.471257</v>
+        <v>5.087391999999999</v>
       </c>
       <c r="O15">
-        <v>0.1466892771850709</v>
+        <v>0.1535233658822184</v>
       </c>
       <c r="P15">
-        <v>0.1028204015862351</v>
+        <v>0.1078690504900635</v>
       </c>
       <c r="Q15">
-        <v>15.7247892841325</v>
+        <v>17.08451796984</v>
       </c>
       <c r="R15">
-        <v>94.348735704795</v>
+        <v>102.50710781904</v>
       </c>
       <c r="S15">
-        <v>0.02664709070036614</v>
+        <v>0.04532838878959067</v>
       </c>
       <c r="T15">
-        <v>0.02020067737729581</v>
+        <v>0.03247489244401049</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.748145</v>
+        <v>6.716415</v>
       </c>
       <c r="H16">
-        <v>17.244435</v>
+        <v>20.149245</v>
       </c>
       <c r="I16">
-        <v>0.1816567046461533</v>
+        <v>0.295254005988679</v>
       </c>
       <c r="J16">
-        <v>0.1964656533689335</v>
+        <v>0.3010584805972866</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.633465333333334</v>
+        <v>3.381336</v>
       </c>
       <c r="N16">
-        <v>16.900396</v>
+        <v>10.144008</v>
       </c>
       <c r="O16">
-        <v>0.3020764543847314</v>
+        <v>0.2040786650207874</v>
       </c>
       <c r="P16">
-        <v>0.3176062655595234</v>
+        <v>0.2150855509313235</v>
       </c>
       <c r="Q16">
-        <v>32.38197558847334</v>
+        <v>22.71045583044</v>
       </c>
       <c r="R16">
-        <v>291.43778029626</v>
+        <v>204.39410247396</v>
       </c>
       <c r="S16">
-        <v>0.05487421325472435</v>
+        <v>0.06025504338420919</v>
       </c>
       <c r="T16">
-        <v>0.06239872247721878</v>
+        <v>0.06475332916181455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.155419999999999</v>
+        <v>1.315755</v>
       </c>
       <c r="H17">
-        <v>14.31084</v>
+        <v>2.63151</v>
       </c>
       <c r="I17">
-        <v>0.22613034597408</v>
+        <v>0.05784066866767975</v>
       </c>
       <c r="J17">
-        <v>0.163043238636596</v>
+        <v>0.03931851552137887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.416098</v>
+        <v>1.546825</v>
       </c>
       <c r="N17">
-        <v>7.248294</v>
+        <v>4.640475</v>
       </c>
       <c r="O17">
-        <v>0.129555482123503</v>
+        <v>0.09335776776421496</v>
       </c>
       <c r="P17">
-        <v>0.1362159554733215</v>
+        <v>0.09839297464651384</v>
       </c>
       <c r="Q17">
-        <v>17.28819595116</v>
+        <v>2.035242727875</v>
       </c>
       <c r="R17">
-        <v>103.72917570696</v>
+        <v>12.21145636725</v>
       </c>
       <c r="S17">
-        <v>0.02929642599542648</v>
+        <v>0.005399875712804151</v>
       </c>
       <c r="T17">
-        <v>0.02220909053434869</v>
+        <v>0.003868665700833592</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.155419999999999</v>
+        <v>1.315755</v>
       </c>
       <c r="H18">
-        <v>14.31084</v>
+        <v>2.63151</v>
       </c>
       <c r="I18">
-        <v>0.22613034597408</v>
+        <v>0.05784066866767975</v>
       </c>
       <c r="J18">
-        <v>0.163043238636596</v>
+        <v>0.03931851552137887</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>16.039892</v>
       </c>
       <c r="O18">
-        <v>0.2866958681958705</v>
+        <v>0.3226929381796237</v>
       </c>
       <c r="P18">
-        <v>0.3014349603463775</v>
+        <v>0.3400972286002662</v>
       </c>
       <c r="Q18">
-        <v>38.25738800488</v>
+        <v>7.03485603282</v>
       </c>
       <c r="R18">
-        <v>229.54432802928</v>
+        <v>42.20913619692001</v>
       </c>
       <c r="S18">
-        <v>0.06483063586447145</v>
+        <v>0.01866477531864768</v>
       </c>
       <c r="T18">
-        <v>0.04914693217316728</v>
+        <v>0.0133721181614975</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.155419999999999</v>
+        <v>1.315755</v>
       </c>
       <c r="H19">
-        <v>14.31084</v>
+        <v>2.63151</v>
       </c>
       <c r="I19">
-        <v>0.22613034597408</v>
+        <v>0.05784066866767975</v>
       </c>
       <c r="J19">
-        <v>0.163043238636596</v>
+        <v>0.03931851552137887</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.517315</v>
+        <v>3.750299666666667</v>
       </c>
       <c r="N19">
-        <v>7.551945</v>
+        <v>11.250899</v>
       </c>
       <c r="O19">
-        <v>0.1349829181108241</v>
+        <v>0.2263472631531553</v>
       </c>
       <c r="P19">
-        <v>0.1419224170345426</v>
+        <v>0.238555195331833</v>
       </c>
       <c r="Q19">
-        <v>18.0124460973</v>
+        <v>4.934475537915</v>
       </c>
       <c r="R19">
-        <v>108.0746765838</v>
+        <v>29.60685322749</v>
       </c>
       <c r="S19">
-        <v>0.03052373397299158</v>
+        <v>0.01309207705187777</v>
       </c>
       <c r="T19">
-        <v>0.02313949050844542</v>
+        <v>0.009379636150360245</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.155419999999999</v>
+        <v>1.315755</v>
       </c>
       <c r="H20">
-        <v>14.31084</v>
+        <v>2.63151</v>
       </c>
       <c r="I20">
-        <v>0.22613034597408</v>
+        <v>0.05784066866767975</v>
       </c>
       <c r="J20">
-        <v>0.163043238636596</v>
+        <v>0.03931851552137887</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.7356285</v>
+        <v>2.543696</v>
       </c>
       <c r="N20">
-        <v>5.471257</v>
+        <v>5.087391999999999</v>
       </c>
       <c r="O20">
-        <v>0.1466892771850709</v>
+        <v>0.1535233658822184</v>
       </c>
       <c r="P20">
-        <v>0.1028204015862351</v>
+        <v>0.1078690504900635</v>
       </c>
       <c r="Q20">
-        <v>19.57457088147</v>
+        <v>3.34688073048</v>
       </c>
       <c r="R20">
-        <v>78.29828352588</v>
+        <v>13.38752292192</v>
       </c>
       <c r="S20">
-        <v>0.0331708970005478</v>
+        <v>0.008879894138740364</v>
       </c>
       <c r="T20">
-        <v>0.01676417127253517</v>
+        <v>0.004241250935969961</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.155419999999999</v>
+        <v>1.315755</v>
       </c>
       <c r="H21">
-        <v>14.31084</v>
+        <v>2.63151</v>
       </c>
       <c r="I21">
-        <v>0.22613034597408</v>
+        <v>0.05784066866767975</v>
       </c>
       <c r="J21">
-        <v>0.163043238636596</v>
+        <v>0.03931851552137887</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.633465333333334</v>
+        <v>3.381336</v>
       </c>
       <c r="N21">
-        <v>16.900396</v>
+        <v>10.144008</v>
       </c>
       <c r="O21">
-        <v>0.3020764543847314</v>
+        <v>0.2040786650207874</v>
       </c>
       <c r="P21">
-        <v>0.3176062655595234</v>
+        <v>0.2150855509313235</v>
       </c>
       <c r="Q21">
-        <v>40.30981051544</v>
+        <v>4.44900974868</v>
       </c>
       <c r="R21">
-        <v>241.85886309264</v>
+        <v>26.69405849208</v>
       </c>
       <c r="S21">
-        <v>0.06830865314064272</v>
+        <v>0.01180404644560977</v>
       </c>
       <c r="T21">
-        <v>0.05178355414809947</v>
+        <v>0.008456844572717568</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.131640666666667</v>
+        <v>3.501345333333334</v>
       </c>
       <c r="H22">
-        <v>18.394922</v>
+        <v>10.504036</v>
       </c>
       <c r="I22">
-        <v>0.1937761899849446</v>
+        <v>0.1539193507274987</v>
       </c>
       <c r="J22">
-        <v>0.2095731387778475</v>
+        <v>0.1569452909178086</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.416098</v>
+        <v>1.546825</v>
       </c>
       <c r="N22">
-        <v>7.248294</v>
+        <v>4.640475</v>
       </c>
       <c r="O22">
-        <v>0.129555482123503</v>
+        <v>0.09335776776421496</v>
       </c>
       <c r="P22">
-        <v>0.1362159554733215</v>
+        <v>0.09839297464651384</v>
       </c>
       <c r="Q22">
-        <v>14.814644751452</v>
+        <v>5.415968495233334</v>
       </c>
       <c r="R22">
-        <v>133.331802763068</v>
+        <v>48.74371645710001</v>
       </c>
       <c r="S22">
-        <v>0.02510476771755501</v>
+        <v>0.01436956699963658</v>
       </c>
       <c r="T22">
-        <v>0.02854720534016749</v>
+        <v>0.01544231403016568</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.131640666666667</v>
+        <v>3.501345333333334</v>
       </c>
       <c r="H23">
-        <v>18.394922</v>
+        <v>10.504036</v>
       </c>
       <c r="I23">
-        <v>0.1937761899849446</v>
+        <v>0.1539193507274987</v>
       </c>
       <c r="J23">
-        <v>0.2095731387778475</v>
+        <v>0.1569452909178086</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>16.039892</v>
       </c>
       <c r="O23">
-        <v>0.2866958681958705</v>
+        <v>0.3226929381796237</v>
       </c>
       <c r="P23">
-        <v>0.3014349603463775</v>
+        <v>0.3400972286002662</v>
       </c>
       <c r="Q23">
-        <v>32.78361802538045</v>
+        <v>18.72040033379022</v>
       </c>
       <c r="R23">
-        <v>295.0525622284241</v>
+        <v>168.483603004112</v>
       </c>
       <c r="S23">
-        <v>0.05555483302342164</v>
+        <v>0.04966868752895657</v>
       </c>
       <c r="T23">
-        <v>0.06317267077716632</v>
+        <v>0.05337665848300922</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.131640666666667</v>
+        <v>3.501345333333334</v>
       </c>
       <c r="H24">
-        <v>18.394922</v>
+        <v>10.504036</v>
       </c>
       <c r="I24">
-        <v>0.1937761899849446</v>
+        <v>0.1539193507274987</v>
       </c>
       <c r="J24">
-        <v>0.2095731387778475</v>
+        <v>0.1569452909178086</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.517315</v>
+        <v>3.750299666666667</v>
       </c>
       <c r="N24">
-        <v>7.551945</v>
+        <v>11.250899</v>
       </c>
       <c r="O24">
-        <v>0.1349829181108241</v>
+        <v>0.2263472631531553</v>
       </c>
       <c r="P24">
-        <v>0.1419224170345426</v>
+        <v>0.238555195331833</v>
       </c>
       <c r="Q24">
-        <v>15.43527102481</v>
+        <v>13.13109423648489</v>
       </c>
       <c r="R24">
-        <v>138.91743922329</v>
+        <v>118.179848128364</v>
       </c>
       <c r="S24">
-        <v>0.02615647558456528</v>
+        <v>0.03483922378347996</v>
       </c>
       <c r="T24">
-        <v>0.02974312640086773</v>
+        <v>0.03744011453130918</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.131640666666667</v>
+        <v>3.501345333333334</v>
       </c>
       <c r="H25">
-        <v>18.394922</v>
+        <v>10.504036</v>
       </c>
       <c r="I25">
-        <v>0.1937761899849446</v>
+        <v>0.1539193507274987</v>
       </c>
       <c r="J25">
-        <v>0.2095731387778475</v>
+        <v>0.1569452909178086</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.7356285</v>
+        <v>2.543696</v>
       </c>
       <c r="N25">
-        <v>5.471257</v>
+        <v>5.087391999999999</v>
       </c>
       <c r="O25">
-        <v>0.1466892771850709</v>
+        <v>0.1535233658822184</v>
       </c>
       <c r="P25">
-        <v>0.1028204015862351</v>
+        <v>0.1078690504900635</v>
       </c>
       <c r="Q25">
-        <v>16.77389095949233</v>
+        <v>8.906358119018666</v>
       </c>
       <c r="R25">
-        <v>100.643345756954</v>
+        <v>53.438148714112</v>
       </c>
       <c r="S25">
-        <v>0.02842488924456849</v>
+        <v>0.02363021679809128</v>
       </c>
       <c r="T25">
-        <v>0.02154839429082606</v>
+        <v>0.01692953951019079</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.131640666666667</v>
+        <v>3.501345333333334</v>
       </c>
       <c r="H26">
-        <v>18.394922</v>
+        <v>10.504036</v>
       </c>
       <c r="I26">
-        <v>0.1937761899849446</v>
+        <v>0.1539193507274987</v>
       </c>
       <c r="J26">
-        <v>0.2095731387778475</v>
+        <v>0.1569452909178086</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.633465333333334</v>
+        <v>3.381336</v>
       </c>
       <c r="N26">
-        <v>16.900396</v>
+        <v>10.144008</v>
       </c>
       <c r="O26">
-        <v>0.3020764543847314</v>
+        <v>0.2040786650207874</v>
       </c>
       <c r="P26">
-        <v>0.3176062655595234</v>
+        <v>0.2150855509313235</v>
       </c>
       <c r="Q26">
-        <v>34.54238513212356</v>
+        <v>11.839225024032</v>
       </c>
       <c r="R26">
-        <v>310.881466189112</v>
+        <v>106.553025216288</v>
       </c>
       <c r="S26">
-        <v>0.05853522441483415</v>
+        <v>0.0314116556173343</v>
       </c>
       <c r="T26">
-        <v>0.06656174196881988</v>
+        <v>0.0337566643631337</v>
       </c>
     </row>
   </sheetData>
